--- a/Question_Set2/Programming skills/jQuery.xlsx
+++ b/Question_Set2/Programming skills/jQuery.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You want to add values in all the input boxes where the name of the input box includes the word “world” in the code given below.  Which option achieves this? &amp;ltinput class="inputVal" name="WorldChampion" /&amp;gt\n&amp;ltinput class="inputVal" name="InstaWorld" /&amp;gt\n&amp;ltinput class="inputVal" name="macroman" /&amp;gt\n&amp;ltinput class="inputVal" name="warOfWorlds" /&amp;gt', 'ques_type': 2, 'options': ['$(".inputVal").has(\'World\').val(\'World listed\')', '$(".inputVal").find(\'World\').val(\'World listed\')', '$("input[name*=\'World\']").val(\'World listed\')', "$('input[*]').filter('World').val('World listed')"], 'score': '$("input[name*=\'World\']").val(\'World listed\')'}, {'title': 'True or false: Given the code below, the alert box will appear when the button containing the text “Alert2” is clicked.$(document).on("click", "button.alert2", function(){\n           alert("clicked!")\n       })\n $("&amp;ltbutton class=\'alert2\'&amp;gtAlert2&amp;lt/button&amp;gt").appendTo(document.body)', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}, {'title': 'Given the code below, what will appear when the element containing the innerText “child” is clicked? &amp;ltdiv class="parent"&amp;gt\n   parent\n   &amp;ltdiv class="child"&amp;gt\n       child\n   &amp;lt/div&amp;gt\n&amp;lt/div&amp;gt\n \n&amp;ltscript&amp;gt\n   $(".child").click(function(e){\n       alert("child clicked!")\n   })\n \n   $(".parent").click(function(e){\n       alert("parent clicked!")\n   })\n&amp;lt/script&amp;gt', 'ques_type': 2, 'options': ['An alert containing the text “child clicked!”', 'An alert containing the text “parent clicked!”', 'An alert containing the text “parent clicked!” followed by another alert containing the text “child clicked!”', 'An alert containing the text “child clicked!” followed by another alert containing the text “parent clicked!”'], 'score': 'An alert containing the text “child clicked!” followed by another alert containing the text “parent clicked!”'}, {'title': 'What is the use of stop() and finish()?', 'ques_type': 2, 'options': ['stop() is used to stop the execution of a document, whereas finish() is used to complete all the processing forcefully', 'stop() is used to stop the current statement’s processing, and finish() is used to immediately stop all the current executions and queued executions', 'stop() is used to stop further processing of the jQuery, whereas finish() is called after the whole document is processed', 'stop() is used to stop the current program execution, whereas finish() enqueues all the statements and finishes them in one go'], 'score': 'stop() is used to stop the current statement’s processing, and finish() is used to immediately stop all the current executions and queued executions'}]</t>
+    <t>questions = [
+    {
+        "title": "You want to add values in all the input boxes where the name of the input box includes the word \u201cworld\u201d in the code given below.  Which option achieves this? &amp;ltinput class=\"inputVal\" name=\"WorldChampion\" /&amp;gt\n&amp;ltinput class=\"inputVal\" name=\"InstaWorld\" /&amp;gt\n&amp;ltinput class=\"inputVal\" name=\"macroman\" /&amp;gt\n&amp;ltinput class=\"inputVal\" name=\"warOfWorlds\" /&amp;gt",
+        "ques_type": 2,
+        "options": [
+            "$(\".inputVal\").has('World').val('World listed')",
+            "$(\".inputVal\").find('World').val('World listed')",
+            "$(\"input[name*='World']\").val('World listed')",
+            "$('input[*]').filter('World').val('World listed')"
+        ],
+        "score": "$(\"input[name*='World']\").val('World listed')"
+    },
+    {
+        "title": "True or false: Given the code below, the alert box will appear when the button containing the text \u201cAlert2\u201d is clicked.$(document).on(\"click\", \"button.alert2\", function(){\n           alert(\"clicked!\")\n       })\n $(\"&amp;ltbutton class='alert2'&amp;gtAlert2&amp;lt/button&amp;gt\").appendTo(document.body)",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    },
+    {
+        "title": "Given the code below, what will appear when the element containing the innerText \u201cchild\u201d is clicked? &amp;ltdiv class=\"parent\"&amp;gt\n   parent\n   &amp;ltdiv class=\"child\"&amp;gt\n       child\n   &amp;lt/div&amp;gt\n&amp;lt/div&amp;gt\n \n&amp;ltscript&amp;gt\n   $(\".child\").click(function(e){\n       alert(\"child clicked!\")\n   })\n \n   $(\".parent\").click(function(e){\n       alert(\"parent clicked!\")\n   })\n&amp;lt/script&amp;gt",
+        "ques_type": 2,
+        "options": [
+            "An alert containing the text \u201cchild clicked!\u201d",
+            "An alert containing the text \u201cparent clicked!\u201d",
+            "An alert containing the text \u201cparent clicked!\u201d followed by another alert containing the text \u201cchild clicked!\u201d",
+            "An alert containing the text \u201cchild clicked!\u201d followed by another alert containing the text \u201cparent clicked!\u201d"
+        ],
+        "score": "An alert containing the text \u201cchild clicked!\u201d followed by another alert containing the text \u201cparent clicked!\u201d"
+    },
+    {
+        "title": "What is the use of stop() and finish()?",
+        "ques_type": 2,
+        "options": [
+            "stop() is used to stop the execution of a document, whereas finish() is used to complete all the processing forcefully",
+            "stop() is used to stop the current statement\u2019s processing, and finish() is used to immediately stop all the current executions and queued executions",
+            "stop() is used to stop further processing of the jQuery, whereas finish() is called after the whole document is processed",
+            "stop() is used to stop the current program execution, whereas finish() enqueues all the statements and finishes them in one go"
+        ],
+        "score": "stop() is used to stop the current statement\u2019s processing, and finish() is used to immediately stop all the current executions and queued executions"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
